--- a/os验证论文/os验证顶会.xlsx
+++ b/os验证论文/os验证顶会.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11850\Desktop\workspace\os验证论文\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11850\Desktop\os_paper\os验证论文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D16A43-E847-4D6F-8DAC-C40779F0BB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA16F92D-098D-4D12-AC7A-D1B88F3D6C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>OSDI（USENIX Symposium on Operating Systems Design and Implementation）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,15 @@
   </si>
   <si>
     <t>Deep specifications and certified abstraction layers. Yale Univ. Technical Report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extending rely-guarantee thinking to handle real-time scheduling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -480,24 +489,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.6640625" customWidth="1"/>
-    <col min="2" max="2" width="77.83203125" customWidth="1"/>
-    <col min="3" max="3" width="4.4140625" customWidth="1"/>
+    <col min="2" max="2" width="77.77734375" customWidth="1"/>
+    <col min="3" max="3" width="4.44140625" customWidth="1"/>
     <col min="4" max="4" width="5.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" customWidth="1"/>
-    <col min="6" max="6" width="45.1640625" customWidth="1"/>
-    <col min="7" max="7" width="40.25" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" customWidth="1"/>
+    <col min="6" max="6" width="45.109375" customWidth="1"/>
+    <col min="7" max="7" width="40.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -520,12 +529,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -533,12 +542,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -546,7 +563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -554,7 +571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -562,7 +579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -570,12 +587,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -583,25 +600,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2016</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -609,12 +626,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -625,12 +642,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2009</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -638,12 +655,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -651,12 +668,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1976</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -664,24 +681,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>1998</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>1991</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B49" t="s">
         <v>24</v>
       </c>
     </row>

--- a/os验证论文/os验证顶会.xlsx
+++ b/os验证论文/os验证顶会.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11850\Desktop\os_paper\os验证论文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA16F92D-098D-4D12-AC7A-D1B88F3D6C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81950F62-4F64-4D51-9567-228FC9BB0D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>OSDI（USENIX Symposium on Operating Systems Design and Implementation）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,13 +155,30 @@
   <si>
     <t>Extending rely-guarantee thinking to handle real-time scheduling</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCC: A Practical System for Verifying Concurrent C</t>
+  </si>
+  <si>
+    <r>
+      <t>Extended First-Order Logic.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF505B62"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +192,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF505B62"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -489,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -686,19 +709,35 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1998</v>
-      </c>
-      <c r="B48" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>2009</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2009</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1998</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>1991</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B52" t="s">
         <v>24</v>
       </c>
     </row>
